--- a/data/trans_orig/P36B04-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>2646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7304</v>
+        <v>7103</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005584747407518581</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001706785345439226</v>
+        <v>0.001719156306552875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01541660942782347</v>
+        <v>0.01499138435183308</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3255</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9295</v>
+        <v>10020</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01065521075262385</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003257467893618166</v>
+        <v>0.003282773634452808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03042542872247588</v>
+        <v>0.03279857531933904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1945</v>
+        <v>1959</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12010</v>
+        <v>11825</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007572501583106803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002496030132563215</v>
+        <v>0.002513249212257667</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01541181571349767</v>
+        <v>0.01517495907697123</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>69578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54689</v>
+        <v>54080</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87875</v>
+        <v>84992</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1468589465507048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1154315021276104</v>
+        <v>0.1141466502571168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1854785807536459</v>
+        <v>0.1793935211826105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -835,19 +835,19 @@
         <v>23437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15531</v>
+        <v>15797</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35379</v>
+        <v>35402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07671668221144461</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05083855836749124</v>
+        <v>0.05170834770261244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1158087824468088</v>
+        <v>0.1158834244046399</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -856,19 +856,19 @@
         <v>93015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>74628</v>
+        <v>75534</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112485</v>
+        <v>114247</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1193613453777921</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09576608679480518</v>
+        <v>0.09692966624341225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.144345812247198</v>
+        <v>0.1466070350448502</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>285475</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>263686</v>
+        <v>261557</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>307112</v>
+        <v>304257</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6025534569664202</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5565624201517726</v>
+        <v>0.5520696497732909</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6482214100906841</v>
+        <v>0.6421948510030537</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>198</v>
@@ -906,19 +906,19 @@
         <v>204062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>186760</v>
+        <v>186546</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>220500</v>
+        <v>219458</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6679716522486449</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.611334856453476</v>
+        <v>0.6106337850039949</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7217779026172157</v>
+        <v>0.7183691140521127</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>474</v>
@@ -927,19 +927,19 @@
         <v>489537</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>459346</v>
+        <v>461663</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>519007</v>
+        <v>514734</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6281990995795783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5894565767627551</v>
+        <v>0.5924291181448351</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6660156516947786</v>
+        <v>0.6605323165808951</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>109519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91529</v>
+        <v>92610</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130117</v>
+        <v>131464</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2311624609969308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1931913046534608</v>
+        <v>0.1954730605915547</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2746379117293017</v>
+        <v>0.2774819777295359</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -977,19 +977,19 @@
         <v>68613</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55119</v>
+        <v>54197</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83773</v>
+        <v>83118</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2245948216553974</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1804240256592418</v>
+        <v>0.1774068142150263</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2742205491256771</v>
+        <v>0.272077121702797</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -998,19 +998,19 @@
         <v>178132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>152156</v>
+        <v>155873</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>206776</v>
+        <v>204395</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.228587774693855</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1952541829815964</v>
+        <v>0.2000237811352027</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2653460329644909</v>
+        <v>0.2622898798260461</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>6557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2397</v>
+        <v>2715</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14129</v>
+        <v>14324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01384038807842564</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005059123322131526</v>
+        <v>0.005729935648110767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02982157002222349</v>
+        <v>0.03023343102942478</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1048,19 +1048,19 @@
         <v>6129</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2812</v>
+        <v>2173</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13134</v>
+        <v>12971</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02006163313188929</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009203365141485382</v>
+        <v>0.007113375342200172</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04299410400208829</v>
+        <v>0.0424603297399544</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1069,19 +1069,19 @@
         <v>12686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6142</v>
+        <v>6924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21596</v>
+        <v>22719</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01627927876566779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007881909565645726</v>
+        <v>0.008885085450848618</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02771277867733728</v>
+        <v>0.02915447846422692</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>8844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4026</v>
+        <v>4136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17486</v>
+        <v>17795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02410162317459151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01097152465923586</v>
+        <v>0.01127126757595331</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04765448882373909</v>
+        <v>0.04849676048131828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1194,19 +1194,19 @@
         <v>7222</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14541</v>
+        <v>14559</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01942214748769466</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008254415837871175</v>
+        <v>0.008265734543598068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03910342596575381</v>
+        <v>0.03915238443073658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1215,19 +1215,19 @@
         <v>16066</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9346</v>
+        <v>8976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26435</v>
+        <v>25375</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02174626998062169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01264961596505185</v>
+        <v>0.01214984575558522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03578136127620422</v>
+        <v>0.03434567775911485</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>52318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38883</v>
+        <v>39085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68464</v>
+        <v>67240</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1425821545338558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1059682261318878</v>
+        <v>0.1065175461019585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1865839697736413</v>
+        <v>0.1832475731536441</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -1265,19 +1265,19 @@
         <v>50364</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37774</v>
+        <v>37538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63778</v>
+        <v>64051</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.135436804176788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1015809633785157</v>
+        <v>0.1009446936199494</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1715077824839649</v>
+        <v>0.1722429148965739</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>99</v>
@@ -1286,19 +1286,19 @@
         <v>102682</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84555</v>
+        <v>83701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>121837</v>
+        <v>124174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1389856354125622</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1144493629201218</v>
+        <v>0.1132928279735609</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1649117161144098</v>
+        <v>0.1680750928402737</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>224406</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>204570</v>
+        <v>204881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>242483</v>
+        <v>242686</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6115709829382918</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5575122155819411</v>
+        <v>0.558358518361229</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6608343030494919</v>
+        <v>0.6613899404705172</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>231</v>
@@ -1336,19 +1336,19 @@
         <v>236311</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>216067</v>
+        <v>218516</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>254335</v>
+        <v>255182</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6354747149107961</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5810367049113206</v>
+        <v>0.5876223049921764</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6839433361512237</v>
+        <v>0.6862225537047886</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>448</v>
@@ -1357,19 +1357,19 @@
         <v>460717</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>433814</v>
+        <v>434154</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>487476</v>
+        <v>487729</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6236026153724316</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5871882999141362</v>
+        <v>0.5876483341943923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6598228117341831</v>
+        <v>0.6601651728973166</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>80532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64863</v>
+        <v>64890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97903</v>
+        <v>97951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2194739589330812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1767712679682872</v>
+        <v>0.1768437094832894</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2668123089195784</v>
+        <v>0.2669440253500273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -1407,19 +1407,19 @@
         <v>73862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59567</v>
+        <v>59569</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90766</v>
+        <v>90973</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1986246991317179</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1601856703052827</v>
+        <v>0.1601894882617031</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2440840666674857</v>
+        <v>0.2446399992782309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1428,19 +1428,19 @@
         <v>154394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132888</v>
+        <v>131325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176438</v>
+        <v>177505</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2089797553190834</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1798706260204511</v>
+        <v>0.1777542445052691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2388166908191409</v>
+        <v>0.2402610513282096</v>
       </c>
     </row>
     <row r="14">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3733</v>
+        <v>4169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002271280420179626</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01017429374284533</v>
+        <v>0.01136154481046485</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1478,19 +1478,19 @@
         <v>4106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9379</v>
+        <v>10276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01104163429300338</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002743675338052965</v>
+        <v>0.002732266169468143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02522195153224511</v>
+        <v>0.02763371515332883</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1499,19 +1499,19 @@
         <v>4939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1851</v>
+        <v>1952</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11053</v>
+        <v>11376</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006685723915301125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002505850521960274</v>
+        <v>0.002642256649600705</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01496063985595741</v>
+        <v>0.01539742815366337</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>4079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1039</v>
+        <v>1053</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9142</v>
+        <v>9311</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007520762995161139</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001915471461153306</v>
+        <v>0.001942279931925918</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01685581809274289</v>
+        <v>0.01716612790856873</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1624,19 +1624,19 @@
         <v>4928</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10877</v>
+        <v>10200</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02936905997896731</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01156084059377817</v>
+        <v>0.01150464308220455</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06482933065606655</v>
+        <v>0.06079138346902861</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1645,19 +1645,19 @@
         <v>9007</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16290</v>
+        <v>17184</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0126825464754564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005755273104921275</v>
+        <v>0.00575270648824513</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02293757831506887</v>
+        <v>0.02419681083899921</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>62281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47628</v>
+        <v>48641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78795</v>
+        <v>78121</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1148271358879166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08781066850442275</v>
+        <v>0.08967940028287112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1452745125333365</v>
+        <v>0.1440317522545328</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1695,19 +1695,19 @@
         <v>16317</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9616</v>
+        <v>10307</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25354</v>
+        <v>24693</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0972503752398092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05731035711227606</v>
+        <v>0.06142916947050383</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1511098302207402</v>
+        <v>0.1471745416212254</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>78</v>
@@ -1716,19 +1716,19 @@
         <v>78598</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62914</v>
+        <v>62617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>95198</v>
+        <v>95177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1106745269766705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0885894418359062</v>
+        <v>0.08817165949806749</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1340492181853874</v>
+        <v>0.1340196226307483</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>327192</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>301131</v>
+        <v>304057</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>348764</v>
+        <v>349894</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6032424610209645</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.555193750904909</v>
+        <v>0.5605885689234167</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.643014071238907</v>
+        <v>0.6450981305672476</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>93</v>
@@ -1766,19 +1766,19 @@
         <v>96776</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84015</v>
+        <v>84800</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109507</v>
+        <v>110141</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5767941364987419</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5007361344851644</v>
+        <v>0.50542038332099</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6526724005040696</v>
+        <v>0.6564509684268682</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>412</v>
@@ -1787,19 +1787,19 @@
         <v>423968</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>396263</v>
+        <v>397656</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>450630</v>
+        <v>448133</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5969938950708822</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5579825487906536</v>
+        <v>0.5599446483328816</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6345377076212639</v>
+        <v>0.631020803552614</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>138213</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118124</v>
+        <v>118966</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160620</v>
+        <v>159554</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2548227462353648</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2177842847656237</v>
+        <v>0.2193368712187204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2961344160902257</v>
+        <v>0.2941694241202006</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1837,19 +1837,19 @@
         <v>45873</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35270</v>
+        <v>35058</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58041</v>
+        <v>57479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.273405843324245</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2102114465528401</v>
+        <v>0.2089494350007326</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.345933977398428</v>
+        <v>0.3425799833313257</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>183</v>
@@ -1858,19 +1858,19 @@
         <v>184086</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>161413</v>
+        <v>160585</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>207378</v>
+        <v>207454</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2592131078107865</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2272869395081509</v>
+        <v>0.2261215045282882</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2920117502214853</v>
+        <v>0.2921177780606714</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>10624</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5538</v>
+        <v>5241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19284</v>
+        <v>18876</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01958689386059306</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01020993227137349</v>
+        <v>0.009662596450968624</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03555407380481411</v>
+        <v>0.03480231658679368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1908,19 +1908,19 @@
         <v>3889</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>962</v>
+        <v>979</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9636</v>
+        <v>9611</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02318058495823662</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005731786211809528</v>
+        <v>0.005837643459782812</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05743393237627464</v>
+        <v>0.05728385823480372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -1929,19 +1929,19 @@
         <v>14513</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8382</v>
+        <v>8312</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24594</v>
+        <v>24061</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02043592366620444</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01180321560015004</v>
+        <v>0.01170425175079066</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03463138158045342</v>
+        <v>0.03388123737707651</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>11746</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6157</v>
+        <v>6070</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20499</v>
+        <v>20593</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009484947079300719</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004972283824421038</v>
+        <v>0.0049014694850589</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01655347969752919</v>
+        <v>0.01662973490905539</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2054,19 +2054,19 @@
         <v>10912</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5024</v>
+        <v>5565</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18620</v>
+        <v>18665</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01527628856067782</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007033303876463797</v>
+        <v>0.007790570706034726</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02606835289613978</v>
+        <v>0.02613088664042647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2075,19 +2075,19 @@
         <v>22657</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13809</v>
+        <v>14715</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34247</v>
+        <v>32936</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01160347031112905</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007071801451369317</v>
+        <v>0.007536154352710988</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0175390855902302</v>
+        <v>0.01686737469772514</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>138369</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>117426</v>
+        <v>116828</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161099</v>
+        <v>162609</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1117382884035279</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09482565225608312</v>
+        <v>0.09434312110500866</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1300934295093076</v>
+        <v>0.1313124721968884</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -2125,19 +2125,19 @@
         <v>64799</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51256</v>
+        <v>50942</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>81229</v>
+        <v>82492</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09071907780998109</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07175793082754092</v>
+        <v>0.07131826385602538</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.113720058874808</v>
+        <v>0.1154883446318196</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>196</v>
@@ -2146,19 +2146,19 @@
         <v>203169</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>178653</v>
+        <v>177720</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>234563</v>
+        <v>231089</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1040492778175846</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0914939751015325</v>
+        <v>0.09101619299701294</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1201273567230333</v>
+        <v>0.1183483458513476</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>715513</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>683738</v>
+        <v>681348</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>752086</v>
+        <v>748893</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5778029506385522</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5521431535707633</v>
+        <v>0.5502131087136655</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6073368642952196</v>
+        <v>0.6047588240494253</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>410</v>
@@ -2196,19 +2196,19 @@
         <v>419502</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>390691</v>
+        <v>391486</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>442710</v>
+        <v>444744</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5873030423866082</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5469682532653914</v>
+        <v>0.5480810323425054</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6197945462385474</v>
+        <v>0.6226424450401706</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1117</v>
@@ -2217,19 +2217,19 @@
         <v>1135015</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1087024</v>
+        <v>1093454</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1178746</v>
+        <v>1179681</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5812781670694044</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5567001086477001</v>
+        <v>0.5599933172241041</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6036741578888669</v>
+        <v>0.604152667300026</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>354425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>321851</v>
+        <v>323787</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>385845</v>
+        <v>389233</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2862111225860868</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2599065025044847</v>
+        <v>0.2614700978025241</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3115841152389373</v>
+        <v>0.3143198519702936</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>200</v>
@@ -2267,19 +2267,19 @@
         <v>206995</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>184078</v>
+        <v>185048</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>231519</v>
+        <v>231893</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2897931924850869</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2577091898681335</v>
+        <v>0.2590680295235967</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3241263601173829</v>
+        <v>0.3246508203761484</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>551</v>
@@ -2288,19 +2288,19 @@
         <v>561420</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>521464</v>
+        <v>522750</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>605655</v>
+        <v>604018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2875214750015793</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2670588011344696</v>
+        <v>0.2677174143930225</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3101754217376792</v>
+        <v>0.3093372479931767</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>18281</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10850</v>
+        <v>11480</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26849</v>
+        <v>28410</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01476269129253232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008761481365015571</v>
+        <v>0.009270373416929358</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02168180172458582</v>
+        <v>0.02294194591627555</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2338,19 +2338,19 @@
         <v>12077</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6201</v>
+        <v>6334</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20177</v>
+        <v>20256</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01690839875764585</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008681948834334203</v>
+        <v>0.008868243278235696</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02824851443623469</v>
+        <v>0.02835840415491439</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -2359,19 +2359,19 @@
         <v>30359</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21117</v>
+        <v>21526</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41362</v>
+        <v>43856</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01554760980030257</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01081487663897359</v>
+        <v>0.01102436446192128</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02118279432935963</v>
+        <v>0.02246000805907668</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>4754</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11590</v>
+        <v>12496</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01356236655746085</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003023126785689131</v>
+        <v>0.003026212124879317</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03306274597610554</v>
+        <v>0.03564624420448543</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2484,19 +2484,19 @@
         <v>7253</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3010</v>
+        <v>2842</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14862</v>
+        <v>14332</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01277588018168722</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005302121635200115</v>
+        <v>0.005006233879037324</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02617960492594078</v>
+        <v>0.02524537397918023</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -2505,19 +2505,19 @@
         <v>12007</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6280</v>
+        <v>6348</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22299</v>
+        <v>20869</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01307613369724289</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006839503780027389</v>
+        <v>0.006912722798729965</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02428467218248217</v>
+        <v>0.02272752348864707</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>45147</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33887</v>
+        <v>33190</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58596</v>
+        <v>59031</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1287884027470578</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09666697779515925</v>
+        <v>0.09467894565520311</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1671510411294393</v>
+        <v>0.1683917113996051</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2555,19 +2555,19 @@
         <v>31450</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21590</v>
+        <v>21557</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43000</v>
+        <v>43535</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05539997525269273</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0380320323964313</v>
+        <v>0.03797239437531626</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07574578102733664</v>
+        <v>0.07668797762132955</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>75</v>
@@ -2576,19 +2576,19 @@
         <v>76598</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>60203</v>
+        <v>60429</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>95101</v>
+        <v>93481</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08341715906545827</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06556337946620563</v>
+        <v>0.0658089578650599</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1035678125016314</v>
+        <v>0.1018036857594577</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>196666</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>177836</v>
+        <v>175287</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>214484</v>
+        <v>214947</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5610139320028663</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5072984159299253</v>
+        <v>0.5000280209845627</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6118416797909987</v>
+        <v>0.6131607400947097</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>315</v>
@@ -2626,19 +2626,19 @@
         <v>335538</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>313637</v>
+        <v>311740</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>360806</v>
+        <v>360250</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5910561744556245</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5524771809992307</v>
+        <v>0.5491359810261149</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6355673222556685</v>
+        <v>0.6345866309436805</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>504</v>
@@ -2647,19 +2647,19 @@
         <v>532204</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>502931</v>
+        <v>498714</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>560697</v>
+        <v>561955</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5795870769741283</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5477078418091348</v>
+        <v>0.5431153629221611</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.610617272460843</v>
+        <v>0.6119869023304124</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>97649</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>80854</v>
+        <v>80647</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>114085</v>
+        <v>116947</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.278556640891389</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2306470371316746</v>
+        <v>0.2300543631286127</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.325442165189811</v>
+        <v>0.3336063334648836</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>179</v>
@@ -2697,19 +2697,19 @@
         <v>186079</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>163281</v>
+        <v>162686</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>208994</v>
+        <v>209555</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.327781360134316</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2876218216442418</v>
+        <v>0.2865735967357702</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3681467688493064</v>
+        <v>0.3691347710036813</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>275</v>
@@ -2718,19 +2718,19 @@
         <v>283728</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>257856</v>
+        <v>256777</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>313593</v>
+        <v>313673</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3089890511252865</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2808136262578754</v>
+        <v>0.2796384763094376</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3415125544702668</v>
+        <v>0.3415993854253512</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>6338</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2572</v>
+        <v>2752</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12196</v>
+        <v>12291</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01807865780122605</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007337360241153688</v>
+        <v>0.007850347514435528</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03478935725950637</v>
+        <v>0.03506177761632979</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -2768,19 +2768,19 @@
         <v>7372</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3576</v>
+        <v>2908</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15127</v>
+        <v>15213</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01298660997567954</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006298864266875456</v>
+        <v>0.005122155557257265</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02664591267783799</v>
+        <v>0.02679747978470588</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -2789,19 +2789,19 @@
         <v>13710</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8015</v>
+        <v>7449</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>22147</v>
+        <v>23352</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01493057913788408</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008728110682006327</v>
+        <v>0.008112430469528777</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02411862373799439</v>
+        <v>0.02543147809839254</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>6209</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2397</v>
+        <v>2487</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12934</v>
+        <v>13771</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02088260126774502</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008060888585478491</v>
+        <v>0.008363604877904496</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04350152282537923</v>
+        <v>0.0463166445407664</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -2914,19 +2914,19 @@
         <v>13860</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8241</v>
+        <v>7776</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23775</v>
+        <v>24832</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01110793593310439</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00660481438539698</v>
+        <v>0.006231454531961994</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0190537890302698</v>
+        <v>0.01990109983357196</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>19</v>
@@ -2935,19 +2935,19 @@
         <v>20069</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12612</v>
+        <v>12271</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>31714</v>
+        <v>30466</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01298882161643759</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.008162563561016457</v>
+        <v>0.007941735462671164</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02052578279270484</v>
+        <v>0.01971783949611289</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>47340</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>35480</v>
+        <v>37058</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>60192</v>
+        <v>61438</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.159224567847675</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1193340456006658</v>
+        <v>0.1246407581794484</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2024505521901864</v>
+        <v>0.2066442021421178</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>114</v>
@@ -2985,19 +2985,19 @@
         <v>114208</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>96951</v>
+        <v>95752</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>136707</v>
+        <v>137073</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09152906979444783</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07769857013889198</v>
+        <v>0.07673769336766395</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1095596606924046</v>
+        <v>0.1098529174582376</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>165</v>
@@ -3006,19 +3006,19 @@
         <v>161548</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>138658</v>
+        <v>139445</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>185605</v>
+        <v>185967</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1045553462709618</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08974091691192992</v>
+        <v>0.09024999808950597</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1201251181295187</v>
+        <v>0.1203591218097379</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>185378</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>168724</v>
+        <v>167754</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>202164</v>
+        <v>201789</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6235075630638443</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5674910801750725</v>
+        <v>0.5642292445381121</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6799651485893702</v>
+        <v>0.6787059428212735</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>817</v>
@@ -3056,19 +3056,19 @@
         <v>823541</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>790873</v>
+        <v>788798</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>854015</v>
+        <v>857217</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.66000378266785</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6338228101499795</v>
+        <v>0.6321596486112956</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6844262342871075</v>
+        <v>0.6869922951144757</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1008</v>
@@ -3077,19 +3077,19 @@
         <v>1008919</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>972907</v>
+        <v>974217</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1048116</v>
+        <v>1045088</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6529810136421232</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6296740285580997</v>
+        <v>0.6305216506328808</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6783494886683138</v>
+        <v>0.6763896685351278</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>53772</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>42392</v>
+        <v>41482</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>69630</v>
+        <v>67738</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.180859837220799</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1425813373896736</v>
+        <v>0.1395223697881187</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2341973964038619</v>
+        <v>0.2278320912432454</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>279</v>
@@ -3127,19 +3127,19 @@
         <v>281993</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>254082</v>
+        <v>252740</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>310923</v>
+        <v>312660</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2259950684355405</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2036264886573541</v>
+        <v>0.2025511108693777</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2491802192970737</v>
+        <v>0.2505723780488623</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>332</v>
@@ -3148,19 +3148,19 @@
         <v>335765</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>302905</v>
+        <v>303661</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>367792</v>
+        <v>367047</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.217309941395448</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1960424318078143</v>
+        <v>0.1965320346502329</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2380382109351429</v>
+        <v>0.2375557778450349</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>4616</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1365</v>
+        <v>1389</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>11367</v>
+        <v>12152</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0155254305999368</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.004590880913053062</v>
+        <v>0.004671987718407036</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03823139862917203</v>
+        <v>0.04087250705034244</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>14</v>
@@ -3198,19 +3198,19 @@
         <v>14180</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>7646</v>
+        <v>8128</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>23782</v>
+        <v>23511</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0113641431690573</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.006127766191810381</v>
+        <v>0.006513817298845387</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01905924086233887</v>
+        <v>0.01884207363757378</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>18</v>
@@ -3219,19 +3219,19 @@
         <v>18796</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>11658</v>
+        <v>11648</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>29641</v>
+        <v>30367</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01216487707502927</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.007544970274491295</v>
+        <v>0.007538716200249978</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01918376341779229</v>
+        <v>0.01965390790729576</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>38277</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>27247</v>
+        <v>26793</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>53221</v>
+        <v>51313</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01170812140869037</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008334195408209916</v>
+        <v>0.008195254206162775</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01627902048633325</v>
+        <v>0.0156955076546907</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>45</v>
@@ -3344,19 +3344,19 @@
         <v>47430</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>35227</v>
+        <v>34962</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>63784</v>
+        <v>62193</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01405368637294538</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01043798041345991</v>
+        <v>0.01035947469326721</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01889945896506632</v>
+        <v>0.01842812645229525</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>81</v>
@@ -3365,19 +3365,19 @@
         <v>85707</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>67798</v>
+        <v>67998</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>107143</v>
+        <v>104713</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0128995430631101</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0102040148277814</v>
+        <v>0.01023410825656835</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01612573185868807</v>
+        <v>0.01576003037279169</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>415034</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>375990</v>
+        <v>379284</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>452473</v>
+        <v>458735</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1269487846398546</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1150062783274795</v>
+        <v>0.1160136381718781</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1384003826612178</v>
+        <v>0.140315928487423</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>294</v>
@@ -3415,19 +3415,19 @@
         <v>300575</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>270278</v>
+        <v>271546</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>339356</v>
+        <v>337465</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08906197998661593</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08008465372030212</v>
+        <v>0.08046057125608432</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1005528075958966</v>
+        <v>0.09999244259259719</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>703</v>
@@ -3436,19 +3436,19 @@
         <v>715610</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>666315</v>
+        <v>663296</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>766450</v>
+        <v>764037</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1077043125537976</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1002851300387873</v>
+        <v>0.0998307409399499</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1153560741293717</v>
+        <v>0.1149929648957784</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>1934632</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1875323</v>
+        <v>1878685</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1990088</v>
+        <v>1999522</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5917564224585853</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5736152129165032</v>
+        <v>0.574643566596247</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6087190358650494</v>
+        <v>0.6116046551070192</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2064</v>
@@ -3486,19 +3486,19 @@
         <v>2115729</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2053289</v>
+        <v>2051278</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2169706</v>
+        <v>2168979</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6269010367622787</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6083996833354801</v>
+        <v>0.6078037548718542</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6428946524554947</v>
+        <v>0.6426793531303802</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3963</v>
@@ -3507,19 +3507,19 @@
         <v>4050361</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3973408</v>
+        <v>3969412</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4132104</v>
+        <v>4123289</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6096080083902284</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5980260083982677</v>
+        <v>0.5974245240774917</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6219108728636767</v>
+        <v>0.6205841936298274</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>834112</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>787879</v>
+        <v>776737</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>890418</v>
+        <v>881049</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2551343494847636</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2409930127870195</v>
+        <v>0.2375846873157034</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2723570495503931</v>
+        <v>0.2694913343372955</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>843</v>
@@ -3557,19 +3557,19 @@
         <v>863413</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>805860</v>
+        <v>812648</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>911299</v>
+        <v>918293</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2558336103232735</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2387803801740573</v>
+        <v>0.2407916146728183</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2700223344805299</v>
+        <v>0.2720947479260723</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1657</v>
@@ -3578,19 +3578,19 @@
         <v>1697525</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1627364</v>
+        <v>1624999</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1772555</v>
+        <v>1772391</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2554895366220992</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2449298189208495</v>
+        <v>0.2445738424246698</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.266782071587751</v>
+        <v>0.266757336523652</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>47249</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>34069</v>
+        <v>34596</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>62862</v>
+        <v>61825</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01445232200810608</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01042093015023798</v>
+        <v>0.01058196523238595</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01922806523845039</v>
+        <v>0.01891062871378536</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>47</v>
@@ -3628,19 +3628,19 @@
         <v>47754</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>35740</v>
+        <v>35280</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>63587</v>
+        <v>63024</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01414968655488648</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01058990844454068</v>
+        <v>0.01045364065454547</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01884112408894282</v>
+        <v>0.01867419317567703</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>95</v>
@@ -3649,19 +3649,19 @@
         <v>95003</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>76387</v>
+        <v>77701</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>114822</v>
+        <v>114931</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01429859937076464</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01149684764285206</v>
+        <v>0.01169452034050687</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0172814995426394</v>
+        <v>0.01729797792648843</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>5116</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10667</v>
+        <v>11166</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01172558436277194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00429193052121881</v>
+        <v>0.00429676109216279</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02444587776313907</v>
+        <v>0.02559139386617269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4016,19 +4016,19 @@
         <v>8973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4027</v>
+        <v>4789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16068</v>
+        <v>16582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02884709716823801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01294789783611065</v>
+        <v>0.01539625321597403</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05165820195701722</v>
+        <v>0.05330945959826965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4037,19 +4037,19 @@
         <v>14089</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8548</v>
+        <v>8626</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22845</v>
+        <v>24161</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01885124492295766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01143787876275247</v>
+        <v>0.01154161667744575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03056721430276672</v>
+        <v>0.03232714404159448</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>37177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26450</v>
+        <v>25926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50190</v>
+        <v>47978</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0852036147386982</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06061965243457636</v>
+        <v>0.05941907937022672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1150280659940329</v>
+        <v>0.1099585853659996</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -4087,19 +4087,19 @@
         <v>41401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30386</v>
+        <v>29710</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55945</v>
+        <v>57011</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1331033919788302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0976908143317184</v>
+        <v>0.09551583635538329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1798604256825841</v>
+        <v>0.1832903187873155</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>75</v>
@@ -4108,19 +4108,19 @@
         <v>78578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63162</v>
+        <v>63191</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97036</v>
+        <v>96076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1051386261713751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08451161440615279</v>
+        <v>0.08455108427600466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1298350514674729</v>
+        <v>0.1285512903360457</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>258439</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>235930</v>
+        <v>236021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>279388</v>
+        <v>280449</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5922990173051016</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5407110116211086</v>
+        <v>0.5409211802165304</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6403099698342609</v>
+        <v>0.6427412159460496</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -4158,19 +4158,19 @@
         <v>192666</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>174176</v>
+        <v>173230</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>210409</v>
+        <v>212085</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6194177171742402</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.559970888672399</v>
+        <v>0.5569321886987818</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6764596849387244</v>
+        <v>0.6818503869403888</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>408</v>
@@ -4179,19 +4179,19 @@
         <v>451105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>423763</v>
+        <v>421469</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>479066</v>
+        <v>479255</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6035853243211114</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.567001099947924</v>
+        <v>0.56393182722013</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.640997488911388</v>
+        <v>0.6412503299246011</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>123446</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105947</v>
+        <v>105774</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145543</v>
+        <v>145497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2829166860204596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2428117653621857</v>
+        <v>0.2424159772120837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.333560900241529</v>
+        <v>0.3334547281556587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -4229,19 +4229,19 @@
         <v>63986</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48863</v>
+        <v>49362</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79548</v>
+        <v>80015</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2057151383428081</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1570944001664149</v>
+        <v>0.1586979901314709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2557456381063535</v>
+        <v>0.2572459527876305</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -4250,19 +4250,19 @@
         <v>187432</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162987</v>
+        <v>162191</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>211504</v>
+        <v>211269</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.250786813518988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2180788238365466</v>
+        <v>0.2170133213615333</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2829959005665846</v>
+        <v>0.2826812813327134</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>12154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6075</v>
+        <v>6817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21888</v>
+        <v>22309</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02785509757296872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01392401559341731</v>
+        <v>0.01562413581757434</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05016254025118118</v>
+        <v>0.05112888716762022</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4300,19 +4300,19 @@
         <v>4018</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>982</v>
+        <v>1021</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9067</v>
+        <v>10010</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0129166553358834</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00315666948761284</v>
+        <v>0.003282350547306364</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02915080844973519</v>
+        <v>0.03218170939941143</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -4321,19 +4321,19 @@
         <v>16172</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9645</v>
+        <v>9214</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27223</v>
+        <v>26429</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02163799106556779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01290497166242768</v>
+        <v>0.01232811172989408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03642441367541382</v>
+        <v>0.03536263444291805</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>4337</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1294</v>
+        <v>1038</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11372</v>
+        <v>10982</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01040533237356175</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003103905185817557</v>
+        <v>0.002490096655774953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02728620599772403</v>
+        <v>0.02635079087452407</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4446,19 +4446,19 @@
         <v>3996</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10077</v>
+        <v>10020</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01182139719981872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002925214417964324</v>
+        <v>0.002917175879321826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02981176505935667</v>
+        <v>0.02964342717684757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -4467,19 +4467,19 @@
         <v>8332</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3860</v>
+        <v>3938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15333</v>
+        <v>15869</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0110394880075524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005114039002625656</v>
+        <v>0.00521710667831812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02031459668361131</v>
+        <v>0.02102527676820761</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>36549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25370</v>
+        <v>26194</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49918</v>
+        <v>52123</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08769611302350952</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06087337098891705</v>
+        <v>0.06285017231985221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1197755917609016</v>
+        <v>0.1250656623108047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -4517,19 +4517,19 @@
         <v>26048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17190</v>
+        <v>17789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38025</v>
+        <v>39366</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07706254296345974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05085690300651145</v>
+        <v>0.05262975475076921</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1124963053934037</v>
+        <v>0.1164625391345897</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -4538,19 +4538,19 @@
         <v>62597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47670</v>
+        <v>47038</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80201</v>
+        <v>79791</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08293408642841407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06315807278476694</v>
+        <v>0.06232060459787511</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1062581005678564</v>
+        <v>0.1057142952152611</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>253052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>231242</v>
+        <v>230616</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>275194</v>
+        <v>273691</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6071822590429673</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5548507093667636</v>
+        <v>0.5533484540878394</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6603088311038993</v>
+        <v>0.6567034810582494</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>194</v>
@@ -4588,19 +4588,19 @@
         <v>215379</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>197297</v>
+        <v>197139</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>234281</v>
+        <v>234733</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6371962709715143</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5837010265690248</v>
+        <v>0.5832337191065573</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6931167857797492</v>
+        <v>0.6944541300646676</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>422</v>
@@ -4609,19 +4609,19 @@
         <v>468432</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>440898</v>
+        <v>437248</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>494301</v>
+        <v>496851</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6206234196524442</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5841442174164223</v>
+        <v>0.5793077350872335</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6548975233051653</v>
+        <v>0.6582759368559408</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>115306</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>96869</v>
+        <v>96685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>135281</v>
+        <v>136435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2766687085502639</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2324295642775929</v>
+        <v>0.2319882815079898</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3245988319385854</v>
+        <v>0.3273660875558204</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -4659,19 +4659,19 @@
         <v>75961</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59857</v>
+        <v>60503</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91190</v>
+        <v>92193</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2247287169377452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1770845573536791</v>
+        <v>0.1789977706288901</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2697839103510827</v>
+        <v>0.2727504697752154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>173</v>
@@ -4680,19 +4680,19 @@
         <v>191267</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>166261</v>
+        <v>168128</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217222</v>
+        <v>222146</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2534084469437596</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2202789052032128</v>
+        <v>0.2227520099499345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2877961790918947</v>
+        <v>0.294320723170877</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>7522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3092</v>
+        <v>3024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16479</v>
+        <v>16626</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01804758700969758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007418609241603398</v>
+        <v>0.007256600211961661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03954053590273676</v>
+        <v>0.03989312321535373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -4730,19 +4730,19 @@
         <v>16627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9409</v>
+        <v>9544</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28574</v>
+        <v>27415</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04919107192746202</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02783685937546595</v>
+        <v>0.02823516982946215</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0845360296997741</v>
+        <v>0.08110816197367671</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -4751,19 +4751,19 @@
         <v>24149</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15316</v>
+        <v>15500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36922</v>
+        <v>39918</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03199455896782978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02029250615490262</v>
+        <v>0.02053632475603671</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04891763039321017</v>
+        <v>0.05288784748158786</v>
       </c>
     </row>
     <row r="15">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7358</v>
+        <v>7158</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003255055986487884</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01170804386235343</v>
+        <v>0.0113901362101083</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6888</v>
+        <v>5957</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00754252890561426</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02658040400921546</v>
+        <v>0.02298729919739</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -4897,19 +4897,19 @@
         <v>4000</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1864</v>
+        <v>995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10663</v>
+        <v>9775</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004506839806330998</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002099521167726382</v>
+        <v>0.001121414471199991</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01201368984791169</v>
+        <v>0.01101271184778567</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>39903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29136</v>
+        <v>28748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53953</v>
+        <v>53779</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06349236179484724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04636108110475282</v>
+        <v>0.04574308037387359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08584893435874229</v>
+        <v>0.08557293763989873</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -4947,19 +4947,19 @@
         <v>22001</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14260</v>
+        <v>13934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32764</v>
+        <v>33341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08489672305900214</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05502573162672275</v>
+        <v>0.05376945944100557</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1264269670218073</v>
+        <v>0.128656862210696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -4968,19 +4968,19 @@
         <v>61904</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47181</v>
+        <v>47437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79564</v>
+        <v>78626</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0697416451395932</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05315507853491699</v>
+        <v>0.05344306679396049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08963826444022298</v>
+        <v>0.08858185182819442</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>394635</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>366817</v>
+        <v>370751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>418903</v>
+        <v>420887</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6279369630676866</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5836747468368847</v>
+        <v>0.5899338856857442</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6665519442825139</v>
+        <v>0.6697095147880988</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>149</v>
@@ -5018,19 +5018,19 @@
         <v>160499</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>145132</v>
+        <v>142547</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>177612</v>
+        <v>175772</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6193290937825089</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5600306746831851</v>
+        <v>0.550056103591597</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6853648082529944</v>
+        <v>0.6782649282754889</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>519</v>
@@ -5039,19 +5039,19 @@
         <v>555134</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>524862</v>
+        <v>521869</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>584212</v>
+        <v>582548</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.625423782996871</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5913187039026548</v>
+        <v>0.5879473225377364</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6581843678047408</v>
+        <v>0.6563098177906048</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>178974</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154943</v>
+        <v>157144</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>204086</v>
+        <v>203304</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2847809597314535</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2465427647150028</v>
+        <v>0.250044787682785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3247383585589843</v>
+        <v>0.3234952637070491</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -5089,19 +5089,19 @@
         <v>70754</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55922</v>
+        <v>56156</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86004</v>
+        <v>85755</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2730220688611318</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2157899876897537</v>
+        <v>0.2166911609872481</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3318682830639532</v>
+        <v>0.3309076193735229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>236</v>
@@ -5110,19 +5110,19 @@
         <v>249728</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>221606</v>
+        <v>223989</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>277228</v>
+        <v>280332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2813477976780897</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.249665405285204</v>
+        <v>0.252349865529776</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3123301922300498</v>
+        <v>0.315826967643936</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>12905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6741</v>
+        <v>6796</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22428</v>
+        <v>22906</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02053465941952477</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01072616233127795</v>
+        <v>0.01081427363183408</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03568729544067435</v>
+        <v>0.03644746306497895</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -5160,19 +5160,19 @@
         <v>3942</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9727</v>
+        <v>8916</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01520958539174288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003758777725486061</v>
+        <v>0.00377306688945668</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03753411009957155</v>
+        <v>0.03440355243969725</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -5181,19 +5181,19 @@
         <v>16847</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9558</v>
+        <v>9442</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27196</v>
+        <v>27368</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01897993437911509</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0107678426975602</v>
+        <v>0.01063809195609903</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03063955528478812</v>
+        <v>0.03083289315467055</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>19164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12105</v>
+        <v>12051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29840</v>
+        <v>29947</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01656225809907712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01046165568179116</v>
+        <v>0.01041514302051141</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02578939740281104</v>
+        <v>0.02588225832072187</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -5306,19 +5306,19 @@
         <v>21693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13508</v>
+        <v>13373</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32224</v>
+        <v>33897</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02841831146871498</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01769513471642507</v>
+        <v>0.01751840197452409</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04221411129698212</v>
+        <v>0.04440510118289651</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -5327,19 +5327,19 @@
         <v>40857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28366</v>
+        <v>27839</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55003</v>
+        <v>56396</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02127493218863333</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01477096283629875</v>
+        <v>0.01449660253670819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02864136337071654</v>
+        <v>0.0293666286913613</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>95870</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>77623</v>
+        <v>76051</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>116012</v>
+        <v>115110</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08285598172169208</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06708567838595372</v>
+        <v>0.06572749253183036</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1002638671713156</v>
+        <v>0.0994840069046268</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>62</v>
@@ -5377,19 +5377,19 @@
         <v>64614</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>49996</v>
+        <v>50028</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>81921</v>
+        <v>82416</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08464607894027609</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06549636577553759</v>
+        <v>0.06553718809108956</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1073186256705733</v>
+        <v>0.107967199694701</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>151</v>
@@ -5398,19 +5398,19 @@
         <v>160484</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>137169</v>
+        <v>135970</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>190361</v>
+        <v>188177</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08356752919173061</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07142695822360871</v>
+        <v>0.07080261667535311</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09912478473603784</v>
+        <v>0.09798801497521363</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>673926</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>638332</v>
+        <v>637880</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>708289</v>
+        <v>707432</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5824440694395517</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5516814794565136</v>
+        <v>0.5512906505730643</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.612142545306589</v>
+        <v>0.611401385647753</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>422</v>
@@ -5448,19 +5448,19 @@
         <v>451076</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>420970</v>
+        <v>422893</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>477567</v>
+        <v>479188</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5909180740604151</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5514795727024918</v>
+        <v>0.5539988877702015</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6256228048130236</v>
+        <v>0.6277457639953902</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1055</v>
@@ -5469,19 +5469,19 @@
         <v>1125002</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1082669</v>
+        <v>1077230</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1169511</v>
+        <v>1167017</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5858124097098303</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5637689078490293</v>
+        <v>0.5609364286563771</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6089895738080452</v>
+        <v>0.6076907718809115</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>336480</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>303311</v>
+        <v>305733</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>369096</v>
+        <v>367489</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2908047876515618</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2621383277177152</v>
+        <v>0.2642312029704266</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3189929917161257</v>
+        <v>0.3176042037399802</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>182</v>
@@ -5519,19 +5519,19 @@
         <v>199669</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>177547</v>
+        <v>176573</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>227350</v>
+        <v>228013</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2615698212750052</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.232590553402756</v>
+        <v>0.2313136148506897</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2978333631770058</v>
+        <v>0.2987012448467016</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>493</v>
@@ -5540,19 +5540,19 @@
         <v>536149</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>494481</v>
+        <v>498433</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>571653</v>
+        <v>578321</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2791841526681977</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.257486690859885</v>
+        <v>0.2595444610100244</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2976719872481394</v>
+        <v>0.3011441153462869</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>31626</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21804</v>
+        <v>21178</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44527</v>
+        <v>44902</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0273329030881172</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01884410341568914</v>
+        <v>0.01830300185333141</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03848230786561041</v>
+        <v>0.03880689310835086</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -5590,19 +5590,19 @@
         <v>26296</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17379</v>
+        <v>16872</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39215</v>
+        <v>38085</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03444771425558862</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02276680426458647</v>
+        <v>0.02210274349050827</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05137291921452795</v>
+        <v>0.04989150961093659</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>53</v>
@@ -5611,19 +5611,19 @@
         <v>57922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>43808</v>
+        <v>43854</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>73235</v>
+        <v>74852</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03016097624160807</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02281197814103176</v>
+        <v>0.0228354873159533</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0381352014821995</v>
+        <v>0.03897713898549475</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>7535</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3461</v>
+        <v>3092</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15393</v>
+        <v>15206</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01478467002860998</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006791512262485755</v>
+        <v>0.006066542647463375</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03020343426248855</v>
+        <v>0.02983659575204837</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -5736,19 +5736,19 @@
         <v>11391</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5853</v>
+        <v>5572</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21508</v>
+        <v>21395</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01500009695129999</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007707283397072495</v>
+        <v>0.007338072171867657</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0283223628448114</v>
+        <v>0.02817344462990693</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -5757,19 +5757,19 @@
         <v>18926</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11212</v>
+        <v>11351</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31423</v>
+        <v>30661</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01491358031811325</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008835041801654604</v>
+        <v>0.008944441045768728</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02476093546584073</v>
+        <v>0.02416079140892368</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>36107</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25766</v>
+        <v>25555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>50261</v>
+        <v>50659</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07084504846847406</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05055611406326004</v>
+        <v>0.05014124196919786</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09861685729896837</v>
+        <v>0.09939711184995952</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>46</v>
@@ -5807,19 +5807,19 @@
         <v>53076</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39694</v>
+        <v>39645</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>71388</v>
+        <v>69556</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06989205472511539</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05227015443064918</v>
+        <v>0.05220660383023239</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09400711251927855</v>
+        <v>0.09159392596078417</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>80</v>
@@ -5828,19 +5828,19 @@
         <v>89182</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>70962</v>
+        <v>72823</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>110295</v>
+        <v>112355</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07027478223704325</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05591717715106861</v>
+        <v>0.05738385829726062</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08691163158056718</v>
+        <v>0.08853477446049435</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>327982</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>307659</v>
+        <v>304908</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>351409</v>
+        <v>350053</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6435322804907315</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6036573328916728</v>
+        <v>0.5982591705241146</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.689497805500413</v>
+        <v>0.6868369873902583</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>408</v>
@@ -5878,19 +5878,19 @@
         <v>439880</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>407197</v>
+        <v>407580</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>465578</v>
+        <v>464713</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5792507451630815</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5362126027667178</v>
+        <v>0.5367173251803834</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6130911476974603</v>
+        <v>0.6119519238513019</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>721</v>
@@ -5899,19 +5899,19 @@
         <v>767862</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>731936</v>
+        <v>731815</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>803081</v>
+        <v>805294</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6050665621611533</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5767576023858311</v>
+        <v>0.5766619090745116</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.632819242050412</v>
+        <v>0.634562561867955</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>127039</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>107337</v>
+        <v>109103</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>147502</v>
+        <v>148939</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.249262214180315</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2106065009112501</v>
+        <v>0.2140713711399735</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.289412486276062</v>
+        <v>0.292232744481663</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>209</v>
@@ -5949,19 +5949,19 @@
         <v>225003</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>200748</v>
+        <v>201374</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>254440</v>
+        <v>253588</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2962928396120281</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2643526563008787</v>
+        <v>0.2651767529399499</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3350561724988769</v>
+        <v>0.3339346630843273</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>331</v>
@@ -5970,19 +5970,19 @@
         <v>352042</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>319717</v>
+        <v>316617</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>384164</v>
+        <v>385989</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2774050826027813</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.251933317384665</v>
+        <v>0.2494909130484028</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3027170188507216</v>
+        <v>0.3041554957966915</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>10996</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5515</v>
+        <v>5890</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19946</v>
+        <v>19152</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02157578683186948</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0108206904101052</v>
+        <v>0.01155668819642202</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03913536855777983</v>
+        <v>0.03757863565167822</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>29</v>
@@ -6020,19 +6020,19 @@
         <v>30045</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>21032</v>
+        <v>20742</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42295</v>
+        <v>42730</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03956426354847496</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02769623117178696</v>
+        <v>0.02731386671858333</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05569605991000078</v>
+        <v>0.05626833828046381</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -6041,19 +6041,19 @@
         <v>41041</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>29669</v>
+        <v>30305</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>54915</v>
+        <v>55884</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03233999268090888</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02337850673532992</v>
+        <v>0.02388037547762742</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04327213730692597</v>
+        <v>0.04403606458560848</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>8376</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3810</v>
+        <v>4033</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15925</v>
+        <v>15443</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03153438383825571</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01434387213393431</v>
+        <v>0.01518332631661703</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05995706489451166</v>
+        <v>0.05814047091439819</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -6166,19 +6166,19 @@
         <v>14835</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8670</v>
+        <v>7820</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25819</v>
+        <v>25611</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01342271408805026</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007844590356573981</v>
+        <v>0.007075396901472026</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02336018470206752</v>
+        <v>0.0231723749946003</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -6187,19 +6187,19 @@
         <v>23211</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14381</v>
+        <v>14544</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>34444</v>
+        <v>35070</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01693196147685453</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01049066218999638</v>
+        <v>0.01060906954146514</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02512594429277083</v>
+        <v>0.02558237158779909</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>34020</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24145</v>
+        <v>24034</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>46808</v>
+        <v>45542</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1280827653818991</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09090330350147934</v>
+        <v>0.09048337373958729</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1762280640038441</v>
+        <v>0.1714607319401323</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>103</v>
@@ -6237,19 +6237,19 @@
         <v>105900</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>87587</v>
+        <v>87708</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>125338</v>
+        <v>127445</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09581541680753848</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07924658062719878</v>
+        <v>0.07935569476868579</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1134026589422618</v>
+        <v>0.1153086660517399</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>137</v>
@@ -6258,19 +6258,19 @@
         <v>139920</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>119628</v>
+        <v>118248</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>164101</v>
+        <v>164414</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1020674140165163</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08726496917902875</v>
+        <v>0.08625849151432106</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.119706757137356</v>
+        <v>0.1199350831673329</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>179649</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>163273</v>
+        <v>165113</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>194020</v>
+        <v>195055</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6763577644394735</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6147030219497245</v>
+        <v>0.6216317371208745</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7304599202708313</v>
+        <v>0.7343582460732727</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>659</v>
@@ -6308,19 +6308,19 @@
         <v>702935</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>667460</v>
+        <v>670661</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>735415</v>
+        <v>735678</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6359971185846809</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6038999231461583</v>
+        <v>0.6067958578129903</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6653841700390056</v>
+        <v>0.6656221055792282</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>837</v>
@@ -6329,19 +6329,19 @@
         <v>882585</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>846440</v>
+        <v>845508</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>916784</v>
+        <v>919296</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6438172419101285</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6174512303375955</v>
+        <v>0.6167711574211582</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6687648655887795</v>
+        <v>0.6705969447931996</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>39617</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>29067</v>
+        <v>28817</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>52415</v>
+        <v>51812</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1491545178215864</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1094340588786885</v>
+        <v>0.1084909433374523</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1973343275458222</v>
+        <v>0.1950638989693862</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>245</v>
@@ -6379,19 +6379,19 @@
         <v>261120</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>233033</v>
+        <v>232297</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>290655</v>
+        <v>290858</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2362545863535976</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2108417788499346</v>
+        <v>0.2101762440622616</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2629765822463371</v>
+        <v>0.2631605085938279</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>285</v>
@@ -6400,19 +6400,19 @@
         <v>300738</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>269108</v>
+        <v>269844</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>331352</v>
+        <v>332170</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2193784124681299</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1963055361205361</v>
+        <v>0.1968426651304438</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2417103958233952</v>
+        <v>0.242307117320153</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>3950</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8937</v>
+        <v>8897</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01487056851878539</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003733419362133685</v>
+        <v>0.003770800848525218</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03364705695014569</v>
+        <v>0.03349524851950232</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>20</v>
@@ -6450,19 +6450,19 @@
         <v>20458</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>11680</v>
+        <v>12324</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>30430</v>
+        <v>30833</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01851016416613276</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01056819496068497</v>
+        <v>0.01115085586644707</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0275318351886352</v>
+        <v>0.02789720712409904</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>24</v>
@@ -6471,19 +6471,19 @@
         <v>24408</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>16270</v>
+        <v>16279</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>35554</v>
+        <v>35808</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01780497012837088</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01186879238022808</v>
+        <v>0.01187471550870507</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02593557846430085</v>
+        <v>0.02612077353258617</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>46573</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>35001</v>
+        <v>34564</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>60903</v>
+        <v>62216</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01364224340816066</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01025248780485616</v>
+        <v>0.01012452627700399</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01783987760636505</v>
+        <v>0.01822420647111708</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>56</v>
@@ -6596,19 +6596,19 @@
         <v>62843</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>48675</v>
+        <v>49204</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>82509</v>
+        <v>80847</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0177712428325692</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01376485157899882</v>
+        <v>0.01391446811268608</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02333274013903375</v>
+        <v>0.02286257302838001</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>100</v>
@@ -6617,19 +6617,19 @@
         <v>109416</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>88865</v>
+        <v>89336</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>132639</v>
+        <v>132935</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01574307160983584</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01278613995237775</v>
+        <v>0.01285386518563262</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01908447443117572</v>
+        <v>0.01912701935997616</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>279625</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>248196</v>
+        <v>250740</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>313663</v>
+        <v>313790</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08190797181352305</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07270154991000853</v>
+        <v>0.07344683578338915</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.09187819309652966</v>
+        <v>0.09191551406973265</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>291</v>
@@ -6667,19 +6667,19 @@
         <v>313040</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>280288</v>
+        <v>281163</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>351927</v>
+        <v>348529</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08852447785470044</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07926265917669466</v>
+        <v>0.07951016019748514</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09952142519375236</v>
+        <v>0.09856057892948288</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>557</v>
@@ -6688,19 +6688,19 @@
         <v>592665</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>541817</v>
+        <v>548350</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>641089</v>
+        <v>642775</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08527443934211826</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07795828655999078</v>
+        <v>0.07889821646653515</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09224187255009943</v>
+        <v>0.09248446421560898</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>2087683</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2031792</v>
+        <v>2029570</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2146772</v>
+        <v>2145731</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6115250411164532</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5951534030606476</v>
+        <v>0.5945026214495128</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6288335870088307</v>
+        <v>0.6285283894795325</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2005</v>
@@ -6738,19 +6738,19 @@
         <v>2162435</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2102283</v>
+        <v>2107804</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2225077</v>
+        <v>2219086</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6115146102743423</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5945042978381901</v>
+        <v>0.5960656328474569</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6292290650652075</v>
+        <v>0.627535052586317</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3962</v>
@@ -6759,19 +6759,19 @@
         <v>4250118</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4166927</v>
+        <v>4170049</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4329885</v>
+        <v>4335815</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6115197339209267</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5995500277510613</v>
+        <v>0.5999991675715021</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.62299684806444</v>
+        <v>0.6238500447491444</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>920862</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>868722</v>
+        <v>864866</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>977706</v>
+        <v>971183</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2697392146996337</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2544665642229477</v>
+        <v>0.2533368423393307</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2863900162522718</v>
+        <v>0.284479241768159</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>831</v>
@@ -6809,19 +6809,19 @@
         <v>896493</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>843312</v>
+        <v>847670</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>949676</v>
+        <v>950885</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2535189926668709</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2384800768074243</v>
+        <v>0.2397124098478544</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2685587752337171</v>
+        <v>0.2689006609802529</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1689</v>
@@ -6830,19 +6830,19 @@
         <v>1817354</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1743242</v>
+        <v>1741601</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1893889</v>
+        <v>1892462</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2614863920708821</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2508228651536976</v>
+        <v>0.2505867991849137</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2724984702055099</v>
+        <v>0.2722930870976359</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>79153</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>62487</v>
+        <v>62383</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>99559</v>
+        <v>101833</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02318552896222932</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01830380825703641</v>
+        <v>0.01827324843883728</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02916278794960743</v>
+        <v>0.02982882779944584</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>94</v>
@@ -6880,19 +6880,19 @@
         <v>101385</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>80230</v>
+        <v>82960</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>122593</v>
+        <v>122521</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02867067637151711</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02268811624055748</v>
+        <v>0.02346021594525473</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03466816691321749</v>
+        <v>0.03464755325387776</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>167</v>
@@ -6901,19 +6901,19 @@
         <v>180538</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>153635</v>
+        <v>156416</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>207444</v>
+        <v>209307</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02597636305623697</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02210541010013431</v>
+        <v>0.02250561044418714</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02984771065784279</v>
+        <v>0.03011567431052296</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>2980</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7880</v>
+        <v>8082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006964269046544911</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002009033704599094</v>
+        <v>0.002022029752259416</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01841319248454534</v>
+        <v>0.01888738643753032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -7268,19 +7268,19 @@
         <v>4291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10795</v>
+        <v>10020</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01236511409048596</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00316111662668874</v>
+        <v>0.00312136196238539</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03110409462964275</v>
+        <v>0.02887025548698708</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -7289,19 +7289,19 @@
         <v>7272</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2958</v>
+        <v>3002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13541</v>
+        <v>14227</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00938289481790204</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003817018827997531</v>
+        <v>0.003873965828969583</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01747290093869912</v>
+        <v>0.01835847309600441</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>47157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33393</v>
+        <v>33972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61929</v>
+        <v>63163</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1101983829369217</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07803511903493404</v>
+        <v>0.07938802164344412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.144717880345558</v>
+        <v>0.1476017166516379</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -7339,19 +7339,19 @@
         <v>39026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28595</v>
+        <v>28708</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53926</v>
+        <v>53036</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1124483401521579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08239434631927692</v>
+        <v>0.08271883396899239</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1553830818146958</v>
+        <v>0.1528167851507341</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -7360,19 +7360,19 @@
         <v>86183</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70378</v>
+        <v>69883</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>106109</v>
+        <v>108395</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1112059668355425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09081197356571802</v>
+        <v>0.09017422587135998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1369180870788827</v>
+        <v>0.1398683628350576</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>242576</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>218398</v>
+        <v>220199</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>262890</v>
+        <v>265401</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5668639855229965</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5103621689014137</v>
+        <v>0.5145707163765122</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6143330368250306</v>
+        <v>0.6202019559538187</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>209</v>
@@ -7410,19 +7410,19 @@
         <v>216270</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>198076</v>
+        <v>198050</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>235682</v>
+        <v>233564</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6231586325437283</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5707347210945259</v>
+        <v>0.5706598259948725</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6790909193692518</v>
+        <v>0.6729874877220829</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>436</v>
@@ -7431,19 +7431,19 @@
         <v>458847</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>427001</v>
+        <v>432958</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>486111</v>
+        <v>488082</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5920740559779045</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5509820594716578</v>
+        <v>0.5586687691771509</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6272546593382147</v>
+        <v>0.6297972524917654</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>127877</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109919</v>
+        <v>110123</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150277</v>
+        <v>148031</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2988279164794096</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2568649658261195</v>
+        <v>0.257341566186074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3511749263541342</v>
+        <v>0.3459268743105242</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -7481,19 +7481,19 @@
         <v>85592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68131</v>
+        <v>69187</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101749</v>
+        <v>101563</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2466226826826649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1963111370233292</v>
+        <v>0.1993549347247229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2931793610209176</v>
+        <v>0.2926435186489286</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -7502,19 +7502,19 @@
         <v>213468</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>189109</v>
+        <v>190349</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>242338</v>
+        <v>239151</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2754491817011953</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2440177270292043</v>
+        <v>0.2456177005762409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3127020632348532</v>
+        <v>0.3085886672705209</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>7337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3314</v>
+        <v>3065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15395</v>
+        <v>14566</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01714544601412718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00774502715544319</v>
+        <v>0.007162185737254206</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03597536117146917</v>
+        <v>0.03403949367265695</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6550</v>
+        <v>6472</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00540523053096304</v>
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01887173703239175</v>
+        <v>0.01864850953306516</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -7573,19 +7573,19 @@
         <v>9213</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4560</v>
+        <v>4523</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16332</v>
+        <v>17133</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01188790066745555</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005883909947868977</v>
+        <v>0.005835697337068227</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02107348317203171</v>
+        <v>0.02210789103625296</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>4036</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1031</v>
+        <v>1072</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9139</v>
+        <v>10164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01075355661523771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002746686017010846</v>
+        <v>0.002855159489848424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02435207267910222</v>
+        <v>0.02708287642793104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -7698,19 +7698,19 @@
         <v>8299</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3779</v>
+        <v>3890</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16809</v>
+        <v>16023</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02241782518523527</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01020968262214658</v>
+        <v>0.01050810131792425</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04540614485666485</v>
+        <v>0.04328473859935702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -7719,19 +7719,19 @@
         <v>12335</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6448</v>
+        <v>6781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21085</v>
+        <v>21407</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.016545694105258</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008649501739292027</v>
+        <v>0.009096136804085114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02828417552438244</v>
+        <v>0.02871572665397882</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>40517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29285</v>
+        <v>28658</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53662</v>
+        <v>53528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1079600562276429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07803189441757512</v>
+        <v>0.07635941723956673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1429852909617817</v>
+        <v>0.1426274921265887</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -7769,19 +7769,19 @@
         <v>42653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31945</v>
+        <v>30781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58642</v>
+        <v>57781</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1152203875743494</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08629334040465532</v>
+        <v>0.08314865801742045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.158412306229285</v>
+        <v>0.1560868130389543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -7790,19 +7790,19 @@
         <v>83171</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65695</v>
+        <v>67757</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>102559</v>
+        <v>103712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.111565326213572</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08812305676734426</v>
+        <v>0.09088957348566545</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1375727434163377</v>
+        <v>0.1391201726326093</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>218769</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>199043</v>
+        <v>197751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>236533</v>
+        <v>238753</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5829187709671441</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.530357093835945</v>
+        <v>0.5269146635138764</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6302517958479504</v>
+        <v>0.6361646809557696</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>196</v>
@@ -7840,19 +7840,19 @@
         <v>204899</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>184330</v>
+        <v>183282</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>225561</v>
+        <v>223310</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5535006984503686</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4979371108256699</v>
+        <v>0.495105805092857</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6093157896715847</v>
+        <v>0.6032356051496492</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>401</v>
@@ -7861,19 +7861,19 @@
         <v>423668</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>395150</v>
+        <v>397842</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>450564</v>
+        <v>452892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5683106093249447</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5300565387585825</v>
+        <v>0.5336675709270791</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6043882320904987</v>
+        <v>0.6075118751481853</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>106350</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90033</v>
+        <v>89179</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125325</v>
+        <v>125236</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2833738492473701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2398959969716314</v>
+        <v>0.2376214743612942</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.333933631421142</v>
+        <v>0.3336955194718432</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -7911,19 +7911,19 @@
         <v>102880</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85412</v>
+        <v>85725</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121062</v>
+        <v>121607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2779139514312401</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2307271984159356</v>
+        <v>0.2315730749242292</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3270301457922376</v>
+        <v>0.3285008708697402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -7932,19 +7932,19 @@
         <v>209230</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>185658</v>
+        <v>182063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>235148</v>
+        <v>233833</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2806626223373665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2490424543646281</v>
+        <v>0.2442200656705377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3154285797200642</v>
+        <v>0.3136646546707548</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>5627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2124</v>
+        <v>2265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12045</v>
+        <v>12604</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01499376694260519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005658736135895609</v>
+        <v>0.006036490643936368</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03209451491081116</v>
+        <v>0.03358262377568003</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -7982,19 +7982,19 @@
         <v>11456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5926</v>
+        <v>6410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21029</v>
+        <v>22320</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0309471373588066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01600861008079192</v>
+        <v>0.01731581165986805</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05680682625701586</v>
+        <v>0.0602949076027672</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -8003,19 +8003,19 @@
         <v>17083</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9428</v>
+        <v>9922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27481</v>
+        <v>26933</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02291574801885882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01264727576981952</v>
+        <v>0.01330958100754441</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03686264145817319</v>
+        <v>0.03612748104822047</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>7057</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2608</v>
+        <v>2804</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14893</v>
+        <v>15025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01357629824186178</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005016493140271551</v>
+        <v>0.005394539145391911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02865091835828559</v>
+        <v>0.0289054878347593</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7151</v>
+        <v>6271</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01178405111368014</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04304833124943266</v>
+        <v>0.03774996111024426</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -8149,19 +8149,19 @@
         <v>9015</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4063</v>
+        <v>3812</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17614</v>
+        <v>16996</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01314224313049567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005923102344129018</v>
+        <v>0.005557597406911087</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02567885991061329</v>
+        <v>0.02477736505796149</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>41447</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29113</v>
+        <v>29506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55824</v>
+        <v>55735</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07973472345215681</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05600718600203149</v>
+        <v>0.05676389669669753</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1073935894746624</v>
+        <v>0.1072213416511115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -8199,19 +8199,19 @@
         <v>20631</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13390</v>
+        <v>12678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31853</v>
+        <v>31523</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1241922493813966</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08060489759835046</v>
+        <v>0.07631507483501747</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1917415146720752</v>
+        <v>0.1897592550833346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -8220,19 +8220,19 @@
         <v>62078</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47072</v>
+        <v>47883</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77799</v>
+        <v>78697</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09050166293547222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06862527593842387</v>
+        <v>0.06980680837996911</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1134199828578363</v>
+        <v>0.1147296740743298</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>301705</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>275003</v>
+        <v>277213</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>321467</v>
+        <v>323493</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5804124489367478</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5290450134585857</v>
+        <v>0.5332965074259489</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6184312102286652</v>
+        <v>0.6223283420199104</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -8270,19 +8270,19 @@
         <v>87137</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74814</v>
+        <v>74064</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>100103</v>
+        <v>101794</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5245320185586213</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4503522334268399</v>
+        <v>0.4458400159065002</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6025842713877858</v>
+        <v>0.6127612354215649</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>370</v>
@@ -8291,19 +8291,19 @@
         <v>388842</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>362928</v>
+        <v>361420</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>416813</v>
+        <v>413158</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5668790549925923</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5291002635038312</v>
+        <v>0.526901375631195</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6076579307805451</v>
+        <v>0.6023285162462536</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>160372</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>141819</v>
+        <v>141144</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>184591</v>
+        <v>185269</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.308519329230744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2728282721615976</v>
+        <v>0.271529715117294</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3551113397469483</v>
+        <v>0.3564153977401767</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -8341,19 +8341,19 @@
         <v>54338</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42317</v>
+        <v>42221</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67707</v>
+        <v>67523</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.327095827248469</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.25473267822487</v>
+        <v>0.2541566521874923</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.407571227190123</v>
+        <v>0.4064659468542046</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>207</v>
@@ -8362,19 +8362,19 @@
         <v>214710</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>191543</v>
+        <v>192762</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>242482</v>
+        <v>241581</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3130182757147909</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.279244240431994</v>
+        <v>0.2810209317146466</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3535062484218184</v>
+        <v>0.3521923269494199</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>9230</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4318</v>
+        <v>4177</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16824</v>
+        <v>16901</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01775720013848957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008307773396126905</v>
+        <v>0.008035336475748518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03236595750528184</v>
+        <v>0.03251370137215438</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7623</v>
+        <v>6338</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01239585369783305</v>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04588695825796746</v>
+        <v>0.03815078543875324</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -8433,19 +8433,19 @@
         <v>11290</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6063</v>
+        <v>5265</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19322</v>
+        <v>19641</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01645876322664893</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008838422629473017</v>
+        <v>0.007676162944613251</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02816846693438969</v>
+        <v>0.02863408912244118</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>7250</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3150</v>
+        <v>2949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14354</v>
+        <v>13806</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006338738864780154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002753936858571285</v>
+        <v>0.002578394582084094</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01255007897001021</v>
+        <v>0.01207106379283753</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -8558,19 +8558,19 @@
         <v>16786</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10005</v>
+        <v>10173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26058</v>
+        <v>28222</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02044279128743769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01218481814408428</v>
+        <v>0.01238895665832651</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0317350964719916</v>
+        <v>0.03437029607957704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -8579,19 +8579,19 @@
         <v>24036</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15373</v>
+        <v>15930</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34810</v>
+        <v>36078</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01223278113420319</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007823839108330516</v>
+        <v>0.008107385116515204</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01771598709138042</v>
+        <v>0.01836177377835017</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>105222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86885</v>
+        <v>86247</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>126733</v>
+        <v>125392</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09199689150490746</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07596450882910091</v>
+        <v>0.07540738110117293</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1108048082550534</v>
+        <v>0.1096319975181488</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>86</v>
@@ -8629,19 +8629,19 @@
         <v>89516</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>72051</v>
+        <v>72371</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>108183</v>
+        <v>108800</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1090181015993489</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08774773405825728</v>
+        <v>0.08813842132984526</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1317524393646098</v>
+        <v>0.1325040033618143</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>184</v>
@@ -8650,19 +8650,19 @@
         <v>194738</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>169889</v>
+        <v>168699</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>222029</v>
+        <v>223590</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09911000543606403</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08646328607069725</v>
+        <v>0.08585773502786312</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1129994835234811</v>
+        <v>0.1137940443349285</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>620419</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>588259</v>
+        <v>582324</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>653356</v>
+        <v>651600</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5424410604370201</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5143236032395685</v>
+        <v>0.5091343182773286</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5712383186033</v>
+        <v>0.5697035262611534</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>420</v>
@@ -8700,19 +8700,19 @@
         <v>436008</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>405666</v>
+        <v>406690</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>463611</v>
+        <v>464209</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.53099799307116</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4940455026934054</v>
+        <v>0.4952918427156389</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5646146209508496</v>
+        <v>0.565343133193517</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1016</v>
@@ -8721,19 +8721,19 @@
         <v>1056427</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1010441</v>
+        <v>1012581</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1100440</v>
+        <v>1098018</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5376590360425357</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.514254698588694</v>
+        <v>0.5153440202210968</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5600592473496093</v>
+        <v>0.5588267048652326</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>374618</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>344164</v>
+        <v>346497</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>406115</v>
+        <v>410518</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3275341483491309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3009078952700794</v>
+        <v>0.3029469910495023</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3550725660338191</v>
+        <v>0.3589218367238383</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>250</v>
@@ -8771,19 +8771,19 @@
         <v>255888</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>229386</v>
+        <v>230998</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>282146</v>
+        <v>282086</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3116363426278312</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2793609385851792</v>
+        <v>0.2813237625273346</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3436152010109453</v>
+        <v>0.3435415040616769</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>614</v>
@@ -8792,19 +8792,19 @@
         <v>630506</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>589974</v>
+        <v>592583</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>673406</v>
+        <v>671759</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3208905018208546</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3002620025401448</v>
+        <v>0.3015900448287435</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3427242160878607</v>
+        <v>0.3418855297510087</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>36245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25735</v>
+        <v>25693</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50542</v>
+        <v>49514</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03168916084416133</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02250047934139831</v>
+        <v>0.02246408887060614</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04418968625298486</v>
+        <v>0.04329116312664766</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -8842,19 +8842,19 @@
         <v>22913</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14353</v>
+        <v>14776</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33842</v>
+        <v>33341</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02790477141422217</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01747998474574782</v>
+        <v>0.01799552966227785</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04121506707714365</v>
+        <v>0.04060485851706817</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>55</v>
@@ -8863,19 +8863,19 @@
         <v>59157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>43983</v>
+        <v>45084</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>75172</v>
+        <v>74541</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03010767556634241</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02238496625454464</v>
+        <v>0.02294504751315314</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03825800424442456</v>
+        <v>0.03793704178704668</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>5970</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2092</v>
+        <v>2006</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12181</v>
+        <v>12051</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009651733740248938</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003382670263655207</v>
+        <v>0.003242517403301612</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01969190087314944</v>
+        <v>0.01948072805622477</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -8988,19 +8988,19 @@
         <v>8348</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3277</v>
+        <v>3468</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16608</v>
+        <v>16979</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0113389132578169</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004451163277824265</v>
+        <v>0.004709637636717326</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02255741573053016</v>
+        <v>0.02306045930382086</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -9009,19 +9009,19 @@
         <v>14319</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8280</v>
+        <v>7540</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24855</v>
+        <v>23108</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0105685914262333</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006111455620900796</v>
+        <v>0.0055653315073555</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0183452492347142</v>
+        <v>0.01705568171725614</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>62797</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>48307</v>
+        <v>47912</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>79339</v>
+        <v>77989</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1015162532444112</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07809188708922456</v>
+        <v>0.07745362002522266</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1282577047664788</v>
+        <v>0.1260755053275265</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>58</v>
@@ -9059,19 +9059,19 @@
         <v>60578</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>46429</v>
+        <v>45769</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78119</v>
+        <v>77154</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0822775377831259</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06306080825113236</v>
+        <v>0.06216336972729165</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1061026922562233</v>
+        <v>0.1047912150086539</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>119</v>
@@ -9080,19 +9080,19 @@
         <v>123375</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>102267</v>
+        <v>104622</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>145274</v>
+        <v>147232</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09106142970282852</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07548195083642439</v>
+        <v>0.07722024427429197</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1072250678206824</v>
+        <v>0.1086698143893236</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>322873</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>297339</v>
+        <v>296664</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>348201</v>
+        <v>348003</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5219505155042966</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4806716697075132</v>
+        <v>0.4795804148154794</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5628953881408522</v>
+        <v>0.5625753283386163</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>370</v>
@@ -9130,19 +9130,19 @@
         <v>392184</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>366176</v>
+        <v>362949</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>423614</v>
+        <v>420451</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5326686793032753</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4973445259291935</v>
+        <v>0.4929615099925633</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.575358070603699</v>
+        <v>0.5710611367828561</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>683</v>
@@ -9151,19 +9151,19 @@
         <v>715057</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>679843</v>
+        <v>678190</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>752560</v>
+        <v>749390</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5277750473673306</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5017836477470301</v>
+        <v>0.5005642107550364</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5554554073696596</v>
+        <v>0.5531154816650626</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>217745</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>194497</v>
+        <v>193339</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>244104</v>
+        <v>243083</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3520013749401477</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3144191916831289</v>
+        <v>0.3125481100501091</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3946142418721912</v>
+        <v>0.3929633801809862</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>248</v>
@@ -9201,19 +9201,19 @@
         <v>257806</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>233392</v>
+        <v>232263</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>284956</v>
+        <v>285653</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3501554855197033</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3169958004355777</v>
+        <v>0.3154618661315375</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.387030730664656</v>
+        <v>0.3879769082735801</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>454</v>
@@ -9222,19 +9222,19 @@
         <v>475551</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>439903</v>
+        <v>439571</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>511078</v>
+        <v>510689</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3509982701223205</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3246869953762556</v>
+        <v>0.3244424010659814</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3772205090772109</v>
+        <v>0.3769331604714202</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>9205</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4933</v>
+        <v>4292</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17672</v>
+        <v>16769</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01488012257089555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007974386932382518</v>
+        <v>0.006937683830030236</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02856878875182033</v>
+        <v>0.0271076372186967</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -9272,19 +9272,19 @@
         <v>17346</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10210</v>
+        <v>10432</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28395</v>
+        <v>29216</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02355938413607865</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01386799849465643</v>
+        <v>0.01416887376320565</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03856643677217594</v>
+        <v>0.03968143132893678</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>23</v>
@@ -9293,19 +9293,19 @@
         <v>26551</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>17177</v>
+        <v>17237</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>38358</v>
+        <v>38769</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01959666138128699</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0126783165057588</v>
+        <v>0.01272273789508243</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0283117041259029</v>
+        <v>0.02861495671751769</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>6566</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2228</v>
+        <v>2370</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13792</v>
+        <v>13478</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02310371907626578</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007838355994743775</v>
+        <v>0.008338646290884499</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04853025702633252</v>
+        <v>0.04742261463902402</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -9418,19 +9418,19 @@
         <v>16247</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9292</v>
+        <v>9058</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25569</v>
+        <v>26243</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01505947179933357</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00861260220651203</v>
+        <v>0.008396539507196895</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02370046881680648</v>
+        <v>0.02432556456234885</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -9439,19 +9439,19 @@
         <v>22813</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14301</v>
+        <v>14574</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33803</v>
+        <v>34028</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01673674904650791</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01049219719254191</v>
+        <v>0.0106925741952281</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02479975777245925</v>
+        <v>0.0249650225503417</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>42795</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>30950</v>
+        <v>31854</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>56888</v>
+        <v>55464</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1505796702176647</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1089026471283298</v>
+        <v>0.11208404844401</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.200168540792241</v>
+        <v>0.1951569787326363</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>92</v>
@@ -9489,19 +9489,19 @@
         <v>95949</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>79742</v>
+        <v>77702</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>119420</v>
+        <v>116128</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08893781535677195</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07391582381874348</v>
+        <v>0.07202437318503609</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1106943726875687</v>
+        <v>0.1076428442561949</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>132</v>
@@ -9510,19 +9510,19 @@
         <v>138743</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>117843</v>
+        <v>118056</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>163431</v>
+        <v>162975</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.101790538187444</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08645682578180179</v>
+        <v>0.08661279329281174</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1199026364686064</v>
+        <v>0.1195685444703521</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>154351</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>137290</v>
+        <v>138271</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>172425</v>
+        <v>171607</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5431057568428294</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4830743798943528</v>
+        <v>0.4865272444870574</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6067036021059571</v>
+        <v>0.6038251350951505</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>546</v>
@@ -9560,19 +9560,19 @@
         <v>594596</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>561492</v>
+        <v>561096</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>625963</v>
+        <v>631192</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5511496120618025</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5204652596295873</v>
+        <v>0.5200980380665372</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.580225457823245</v>
+        <v>0.585071931587321</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>693</v>
@@ -9581,19 +9581,19 @@
         <v>748946</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>710772</v>
+        <v>713658</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>787610</v>
+        <v>790350</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5494724165612318</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5214653458135412</v>
+        <v>0.5235830215745134</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5778387712216631</v>
+        <v>0.5798489252127378</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>73647</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>59767</v>
+        <v>59173</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>88225</v>
+        <v>88115</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2591396563321806</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2103006991973347</v>
+        <v>0.2082106802269166</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3104340809131348</v>
+        <v>0.3100440556859626</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>310</v>
@@ -9631,19 +9631,19 @@
         <v>343967</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>314660</v>
+        <v>310966</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>376209</v>
+        <v>376317</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3188342066884076</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2916679181403585</v>
+        <v>0.2882446010218013</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3487201041572208</v>
+        <v>0.3488198551068784</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>380</v>
@@ -9652,19 +9652,19 @@
         <v>417615</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>380060</v>
+        <v>381318</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>450503</v>
+        <v>452975</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3063875093597563</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2788347408069462</v>
+        <v>0.2797578093924843</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.330516345430102</v>
+        <v>0.3323297326762343</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>6841</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2589</v>
+        <v>2271</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14194</v>
+        <v>13977</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02407119753105965</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.009109385123615409</v>
+        <v>0.007991168433483282</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04994330297422735</v>
+        <v>0.04918183572029352</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>26</v>
@@ -9702,19 +9702,19 @@
         <v>28070</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>18325</v>
+        <v>19049</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>39191</v>
+        <v>41068</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02601889409368449</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0169858744875287</v>
+        <v>0.0176569526544377</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03632715415714528</v>
+        <v>0.03806688948890547</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>32</v>
@@ -9723,19 +9723,19 @@
         <v>34911</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>24728</v>
+        <v>23640</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>48230</v>
+        <v>47020</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02561278684505996</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01814162122360563</v>
+        <v>0.01734380542868945</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03538429906112122</v>
+        <v>0.03449684863901596</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>33860</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>23330</v>
+        <v>23306</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>47085</v>
+        <v>46636</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01004861260667539</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006923727456923143</v>
+        <v>0.006916457033171453</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01397361187222664</v>
+        <v>0.0138402778177076</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>52</v>
@@ -9848,19 +9848,19 @@
         <v>55929</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>42547</v>
+        <v>42730</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>73491</v>
+        <v>72939</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01589075357666677</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01208858974983215</v>
+        <v>0.01214060330425304</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02088074532848656</v>
+        <v>0.02072379461496609</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>84</v>
@@ -9869,19 +9869,19 @@
         <v>89788</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>72596</v>
+        <v>70866</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>111247</v>
+        <v>111023</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01303327854977648</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01053775732427898</v>
+        <v>0.01028660698404058</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01614812631040654</v>
+        <v>0.01611557286437465</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>339935</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>305779</v>
+        <v>305904</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>379107</v>
+        <v>380485</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1008833608176575</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.09074683274675524</v>
+        <v>0.09078397105953866</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1125087425362801</v>
+        <v>0.1129177096112708</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>331</v>
@@ -9919,19 +9919,19 @@
         <v>348352</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>313555</v>
+        <v>313528</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>386028</v>
+        <v>383655</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09897596040102205</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08908901574809745</v>
+        <v>0.08908154165252892</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1096805226381887</v>
+        <v>0.10900648507107</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>645</v>
@@ -9940,19 +9940,19 @@
         <v>688287</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>638992</v>
+        <v>639639</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>738237</v>
+        <v>737188</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09990889733027658</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09275345475417746</v>
+        <v>0.09284733866080731</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1071594874438614</v>
+        <v>0.107007171032848</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>1860693</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1802627</v>
+        <v>1802356</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1922742</v>
+        <v>1919824</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5522031373144429</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5349708218888947</v>
+        <v>0.534890387217608</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5706177317490629</v>
+        <v>0.5697517048407936</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1823</v>
@@ -9990,19 +9990,19 @@
         <v>1931093</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1873630</v>
+        <v>1872943</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1993412</v>
+        <v>1987066</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5486737726585278</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5323469883282703</v>
+        <v>0.5321517820279189</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.566380092273041</v>
+        <v>0.5645772160117754</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3599</v>
@@ -10011,19 +10011,19 @@
         <v>3791786</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3702505</v>
+        <v>3712175</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3871115</v>
+        <v>3872836</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5504000355845458</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5374404501475205</v>
+        <v>0.5388440696622412</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5619151730290511</v>
+        <v>0.5621650166485936</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>1060608</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1005781</v>
+        <v>1005997</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1119698</v>
+        <v>1114266</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3147598097684761</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2984883948563058</v>
+        <v>0.2985527189261875</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3322959194307873</v>
+        <v>0.3306839319843588</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1033</v>
@@ -10061,19 +10061,19 @@
         <v>1100471</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1043997</v>
+        <v>1048121</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1155961</v>
+        <v>1160805</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3126724658324938</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2966266817083562</v>
+        <v>0.2977983091602153</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3284385984797821</v>
+        <v>0.3298147894876042</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2051</v>
@@ -10082,19 +10082,19 @@
         <v>2161079</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2084980</v>
+        <v>2081856</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2245810</v>
+        <v>2236003</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3136934157205977</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3026471286240786</v>
+        <v>0.3021936521294542</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3259925390677731</v>
+        <v>0.3245690802992359</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>74485</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>58157</v>
+        <v>58595</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>93074</v>
+        <v>93225</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02210507949274817</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01725954533318203</v>
+        <v>0.01738948960370208</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02762191091400828</v>
+        <v>0.02766652520524093</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>76</v>
@@ -10132,19 +10132,19 @@
         <v>83720</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>65792</v>
+        <v>64874</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>104034</v>
+        <v>102642</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02378704753128958</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01869312914161743</v>
+        <v>0.01843250771342482</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02955874996568265</v>
+        <v>0.02916334673906076</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>145</v>
@@ -10153,19 +10153,19 @@
         <v>158205</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>136373</v>
+        <v>134337</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>184848</v>
+        <v>183841</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02296437281480344</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01979538264945406</v>
+        <v>0.01949975159780622</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02683183989142176</v>
+        <v>0.02668567289362244</v>
       </c>
     </row>
     <row r="45">
